--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_MCPS_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_500/Tests_Estadisticos/dm_comparaciones_MCPS_Lineal_Estacionario_ARMA.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.3826725229786571</v>
+        <v>0.3828547996091605</v>
       </c>
       <c r="D2">
-        <v>0.7020110264198467</v>
+        <v>0.7055015595029293</v>
       </c>
       <c r="E2">
         <v>0.615198555756413</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.6241238150726443</v>
+        <v>-0.5629727912688752</v>
       </c>
       <c r="D3">
-        <v>0.5326310635010638</v>
+        <v>0.5791462298687748</v>
       </c>
       <c r="E3">
         <v>0.615198555756413</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.5954380676376835</v>
+        <v>0.6184602870273573</v>
       </c>
       <c r="D4">
-        <v>0.5516309325157809</v>
+        <v>0.5426228001449704</v>
       </c>
       <c r="E4">
         <v>0.615198555756413</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-0.0853208672952553</v>
+        <v>-0.1047573264290098</v>
       </c>
       <c r="D5">
-        <v>0.9320164746716724</v>
+        <v>0.9175175942500626</v>
       </c>
       <c r="E5">
         <v>0.615198555756413</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.8598775185274538</v>
+        <v>-0.7305496900641796</v>
       </c>
       <c r="D6">
-        <v>0.3899793200075907</v>
+        <v>0.4727631458341104</v>
       </c>
       <c r="E6">
         <v>0.607549852580347</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>0.147696276333482</v>
+        <v>0.1214704558035892</v>
       </c>
       <c r="D7">
-        <v>0.8826002042338605</v>
+        <v>0.9044210904474679</v>
       </c>
       <c r="E7">
         <v>0.607549852580347</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-0.4505461696250896</v>
+        <v>-0.3781875218724352</v>
       </c>
       <c r="D8">
-        <v>0.6523748432209597</v>
+        <v>0.7089158956829102</v>
       </c>
       <c r="E8">
         <v>0.607549852580347</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>1.089936651861186</v>
+        <v>0.8955111711588992</v>
       </c>
       <c r="D9">
-        <v>0.275897451080203</v>
+        <v>0.3802078991838989</v>
       </c>
       <c r="E9">
         <v>0.6308766279855842</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0.5838509790012011</v>
+        <v>0.4400260438982854</v>
       </c>
       <c r="D10">
-        <v>0.5593990019439437</v>
+        <v>0.6642109374961542</v>
       </c>
       <c r="E10">
         <v>0.6308766279855842</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.655526948178647</v>
+        <v>-0.5862918235365201</v>
       </c>
       <c r="D11">
-        <v>0.5122183491205448</v>
+        <v>0.563647147114211</v>
       </c>
       <c r="E11">
         <v>0.6040824964414188</v>
